--- a/Tables/Sources/gameplay/Avatar/Avatar.xlsx
+++ b/Tables/Sources/gameplay/Avatar/Avatar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -43,10 +43,19 @@
     <t>HeadIcon</t>
   </si>
   <si>
+    <t>zhangmen</t>
+  </si>
+  <si>
+    <t>MainChanllenge;</t>
+  </si>
+  <si>
+    <t>;00</t>
+  </si>
+  <si>
+    <t>lvqunzi</t>
+  </si>
+  <si>
     <t>qiaobangzhu</t>
-  </si>
-  <si>
-    <t>MainChanllenge;</t>
   </si>
   <si>
     <t>;06</t>
@@ -78,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -99,6 +108,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -114,23 +131,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,15 +207,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,15 +223,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,61 +231,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,187 +273,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,6 +482,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -484,48 +502,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,11 +523,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,6 +568,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -578,10 +587,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -590,133 +599,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1081,10 +1090,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1148,7 +1157,7 @@
       </c>
       <c r="B5" s="2" t="str">
         <f>D5&amp;E5&amp;F5</f>
-        <v>MainChanllenge;1;06</v>
+        <v>MainChanllenge;0;00</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -1157,7 +1166,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>11</v>
@@ -1168,8 +1177,8 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f t="shared" ref="B6:B12" si="0">D6&amp;E6&amp;F6</f>
-        <v>MainChanllenge;2;06</v>
+        <f>D6&amp;E6&amp;F6</f>
+        <v>MainChanllenge;0;00</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -1178,7 +1187,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>11</v>
@@ -1189,8 +1198,8 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MainChanllenge;3;06</v>
+        <f>D7&amp;E7&amp;F7</f>
+        <v>MainChanllenge;1;06</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -1199,10 +1208,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:6">
@@ -1210,20 +1219,20 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MainChanllenge;4;06</v>
+        <f t="shared" ref="B8:B14" si="0">D8&amp;E8&amp;F8</f>
+        <v>MainChanllenge;2;06</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:6">
@@ -1232,19 +1241,19 @@
       </c>
       <c r="B9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>MainChanllenge;5;06</v>
+        <v>MainChanllenge;3;06</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:6">
@@ -1253,61 +1262,103 @@
       </c>
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>MainChanllenge;6;06</v>
+        <v>MainChanllenge;4;06</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" s="2" customFormat="1" spans="1:6">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>MainChanllenge;7;06</v>
+        <v>MainChanllenge;5;06</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" s="2" customFormat="1" spans="1:6">
       <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>MainChanllenge;8;06</v>
+        <v>MainChanllenge;6;06</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="3">
+        <v>6</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MainChanllenge;7;06</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3">
+        <v>7</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MainChanllenge;8;06</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
         <v>8</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>11</v>
+      <c r="F14" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
